--- a/修論/本文/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
+++ b/修論/本文/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A6EF65-3C42-489D-BFAF-764CD877A378}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8ABF9-F794-402E-A2A1-28BEF38780FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7980" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="2475" yWindow="0" windowWidth="18270" windowHeight="7980" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,124 +32,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>L500_slope</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slope</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W/A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W/mA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i_int</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>傾き</t>
-    <rPh sb="0" eb="1">
-      <t>カタム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>吸収係数 /cm</t>
-    <rPh sb="0" eb="2">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>切片</t>
-    <rPh sb="0" eb="2">
-      <t>セッペン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内部量子効率</t>
-    <rPh sb="0" eb="2">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョウシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>ｱ</t>
-  </si>
-  <si>
-    <t>w50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>係数値</t>
-  </si>
-  <si>
-    <t>±標準偏差</t>
-  </si>
-  <si>
-    <t>w30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w100 平均しない場合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L500_slope</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L1000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L2000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slope</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>wave</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>charge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W/A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W/mA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha_int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -519,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2846F1F5-64D5-4739-9D4F-E2D1BFD55F4F}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17:N23"/>
     </sheetView>
   </sheetViews>
@@ -530,30 +475,30 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>1.60218E-19</v>
@@ -571,16 +516,16 @@
         <v>1.1808000000000001</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
@@ -650,7 +595,7 @@
         <v>500</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N23" si="1">E$2/F$2/(H$2/G$2)*L4</f>
+        <f t="shared" ref="N4:N21" si="1">E$2/F$2/(H$2/G$2)*L4</f>
         <v>0.56587175668288392</v>
       </c>
       <c r="P4">
@@ -1057,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1BF4A4-A247-40E2-A51F-61BAD6C8DE28}">
-  <dimension ref="B1:M15"/>
+  <dimension ref="D3:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1068,209 +1013,41 @@
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1">
-        <f>LN(1/0.32)</f>
-        <v>1.1394342831883648</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <f>0.90572</f>
-        <v>0.90571999999999997</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>C3*E1*E3*1000</f>
-        <v>1.5138025802240862</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <f>1.0369</f>
-        <v>1.0368999999999999</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2">
-        <v>0.223</v>
-      </c>
-      <c r="M2">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>0.0012033</f>
-        <v>1.2033E-3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <f>1/C2</f>
-        <v>1.1040939804796184</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <f>0.0010779</f>
-        <v>1.0778999999999999E-3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.95E-4</v>
-      </c>
-      <c r="M3">
-        <v>2.4000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <f>LN(1/0.32)</f>
-        <v>1.1394342831883648</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <f>0.67888</f>
-        <v>0.67888000000000004</v>
-      </c>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f>C7*E5*E7*1000</f>
-        <v>2.4620494785661853</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>0.0014669</f>
-        <v>1.4668999999999999E-3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>16.7</v>
       </c>
       <c r="E7">
-        <f>1/C6</f>
-        <v>1.4730143766203156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D9">
+        <f>1/E7</f>
+        <v>0.94339622641509424</v>
+      </c>
       <c r="E9">
-        <f>LN(1/0.32)</f>
-        <v>1.1394342831883648</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f>1.051</f>
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f>C11*E9*E11*1000</f>
-        <v>1.1304358963658498</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f>0.0010427</f>
-        <v>1.0426999999999999E-3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <f>1/C10</f>
-        <v>0.95147478591817325</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <f>LN(1/0.32)</f>
-        <v>1.1394342831883648</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <f>1.0369</f>
-        <v>1.0368999999999999</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <f>C15*E13*E15*1000</f>
-        <v>1.1844885850600237</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>0.0010779</f>
-        <v>1.0778999999999999E-3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <f>1/C14</f>
-        <v>0.96441315459542876</v>
+        <f>D7*LN(1/0.32)*D9</f>
+        <v>17.951464650231781</v>
       </c>
     </row>
   </sheetData>
